--- a/input.xlsx
+++ b/input.xlsx
@@ -199,7 +199,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -217,6 +217,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -239,8 +243,8 @@
   </sheetPr>
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S2" activeCellId="0" sqref="S2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N4" activeCellId="0" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -253,7 +257,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="11" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="17.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -413,7 +419,7 @@
         <v>25</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>29731</v>
+        <v>29732</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>26</v>
@@ -471,7 +477,7 @@
       <c r="M4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="2" t="n">
+      <c r="N4" s="5" t="n">
         <v>29731</v>
       </c>
       <c r="O4" s="4" t="s">

--- a/input.xlsx
+++ b/input.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="29">
   <si>
     <t xml:space="preserve">id_evento</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t xml:space="preserve">str</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coso</t>
   </si>
 </sst>
 </file>
@@ -244,7 +250,7 @@
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N4" activeCellId="0" sqref="N4"/>
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -439,10 +445,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>21</v>
@@ -454,7 +460,7 @@
         <v>19</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>23</v>
